--- a/high-level-fin-tech-microservice-architecture.xlsx
+++ b/high-level-fin-tech-microservice-architecture.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yephonethway/IdeaProjects/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yephonethway/IdeaProjects/study/high-level-fin-tech-microservice-architecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A97734-72D1-D049-B43C-6DAB973D3ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887C7577-7F3A-D441-AC39-A20ED738803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{16785E8B-2130-4043-A3B8-CD66FF80CD54}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{16785E8B-2130-4043-A3B8-CD66FF80CD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="High Level Architecture" sheetId="2" r:id="rId2"/>
-    <sheet name="Request &amp; Response" sheetId="3" r:id="rId3"/>
+    <sheet name="Contact" sheetId="4" r:id="rId3"/>
+    <sheet name="API and Service List" sheetId="5" r:id="rId4"/>
+    <sheet name="DB Design" sheetId="6" r:id="rId5"/>
+    <sheet name="Request &amp; Response" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +81,42 @@
   <si>
     <t>High Level Fin-Tech Microservice Architecture Demo</t>
   </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>+959252656065</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ye-win-1a33a292/</t>
+  </si>
+  <si>
+    <t>https://github.com/yewin-mm</t>
+  </si>
+  <si>
+    <t>https://yewin.me/</t>
+  </si>
+  <si>
+    <t>We will define API List and Service List Here</t>
+  </si>
+  <si>
+    <t>We will define DB Design Here</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,8 +198,33 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +255,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -215,12 +297,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,9 +375,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,10 +383,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,19 +392,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7288,9 +7462,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CADA0F-FE59-EB4F-9FC0-1D4A592A1838}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7302,13 +7479,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
@@ -7329,211 +7506,245 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>44796</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:I13"/>
@@ -7546,40 +7757,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7587,9 +7764,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE55D99D-774E-DE4C-A218-20548E75B34C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:BO14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7597,222 +7777,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
+      <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="AH4" s="5"/>
     </row>
     <row r="5" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="16" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="AK6" s="6" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="AK6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BO6" s="6" t="s">
+      <c r="BO6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7824,6 +8004,302 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6E093-DC14-C54D-B813-EB47357EBD8F}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="F10:R11"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:R13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="F14:R15"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="F6:R7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="F8:R9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{4EDDA634-8BBC-DD49-AE64-0818AB047B17}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{034FFF17-D220-824C-962D-4E759B209271}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{9389F7EC-FE20-EC48-8BCB-2E97EB2F08FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234BC56F-A078-FC41-BE1A-008A9C0E7B2C}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877BF9D2-6F77-E041-9DE0-83D3995A581A}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DB9990-5913-CF4F-8F8B-A8982E17C0DC}">
   <dimension ref="B4"/>
   <sheetViews>
